--- a/Ajit_Bakery/wwwroot/Doc/ExcelExport.xlsx
+++ b/Ajit_Bakery/wwwroot/Doc/ExcelExport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>DAILY ORDER SHEET</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Pineapple - .5</t>
-  </si>
-  <si>
-    <t>Strawberry - .5</t>
-  </si>
-  <si>
-    <t>Chocolate - 1</t>
-  </si>
-  <si>
-    <t>Blueberry Torte - .25</t>
   </si>
   <si>
     <t>AJNI SHOP</t>
@@ -424,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +450,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -506,57 +497,6 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
